--- a/ディレクトリ構成一覧.xlsx
+++ b/ディレクトリ構成一覧.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>投票チーム　ディレクトリ一覧</t>
     <rPh sb="0" eb="2">
@@ -28,16 +28,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作成者：中野</t>
-    <rPh sb="0" eb="3">
-      <t>サクセイシャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ナカノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>管理者ページ　ディレクトリ</t>
     <rPh sb="0" eb="3">
       <t>カンリシャ</t>
@@ -273,6 +263,59 @@
   </si>
   <si>
     <t>/vote_manage.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t.enzerus.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投票数変更</t>
+    <rPh sb="0" eb="3">
+      <t>トウヒョウスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vote_edit_new.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/vote_edit_new.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vote_change.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/vote_change.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投票数変更処理</t>
+    <rPh sb="0" eb="5">
+      <t>トウヒョウスウヘンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者：中野佑亮</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナカノ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ユウリョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -305,7 +348,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,6 +373,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -349,9 +398,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -366,6 +412,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,216 +717,243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G26"/>
+  <dimension ref="A2:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="2" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
+      <c r="B24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="2" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="2" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
